--- a/test/data/Bulk_Upload_Bookings.xlsx
+++ b/test/data/Bulk_Upload_Bookings.xlsx
@@ -1276,7 +1276,7 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,7 +1410,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="36">
-        <v>43952</v>
+        <v>44105</v>
       </c>
       <c r="C2" s="37">
         <v>0.375</v>
@@ -1467,7 +1467,7 @@
         <v>56</v>
       </c>
       <c r="B3" s="36">
-        <v>43956</v>
+        <v>44140</v>
       </c>
       <c r="C3" s="37">
         <v>0.4375</v>
@@ -1536,7 +1536,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="36">
-        <v>43957</v>
+        <v>44141</v>
       </c>
       <c r="C4" s="37">
         <v>0.46875</v>

--- a/test/data/Bulk_Upload_Bookings.xlsx
+++ b/test/data/Bulk_Upload_Bookings.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\har\ll-ui-test-automation\test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\har\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21540" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Bulk_Upload_Template" sheetId="1" r:id="rId1"/>
@@ -1276,7 +1276,7 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,7 +1410,7 @@
         <v>51</v>
       </c>
       <c r="B2" s="36">
-        <v>44105</v>
+        <v>44470</v>
       </c>
       <c r="C2" s="37">
         <v>0.375</v>
@@ -1467,7 +1467,7 @@
         <v>56</v>
       </c>
       <c r="B3" s="36">
-        <v>44140</v>
+        <v>44505</v>
       </c>
       <c r="C3" s="37">
         <v>0.4375</v>
@@ -1536,7 +1536,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="36">
-        <v>44141</v>
+        <v>44506</v>
       </c>
       <c r="C4" s="37">
         <v>0.46875</v>
